--- a/SAO KÊ/17-06-2025/17-06-2025_lich-su-giao-dich-tai-khoan.xlsx
+++ b/SAO KÊ/17-06-2025/17-06-2025_lich-su-giao-dich-tai-khoan.xlsx
@@ -1,48 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29012"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tungnx\Documents\NetSarang Computer\6\Xftp\Temporary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833D212D-859E-4198-BF48-6E7FEEC07B45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{833D212D-859E-4198-BF48-6E7FEEC07B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C25EFE1-157A-4598-9CA0-BF48A63D69A3}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="9450" windowWidth="23040" windowHeight="9195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vietcombank_Account_Statement" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Tung Nghiem Xuan</author>
-  </authors>
-  <commentList/>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="146">
-  <si>
-    <t>${cif}</t>
-  </si>
-  <si>
-    <t>Trân trọng cảm ơn quý khách đã sử dụng dịch vụ Vietcombank!
-Thank you for using Vietcombank’s services!
-__________________</t>
-  </si>
-  <si>
-    <t>VIETCOMBANK – Chung niềm tin vững tương lai
-VIETCOMBANK – Together for the future
-*********</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="126">
   <si>
     <r>
       <t xml:space="preserve">SAO KÊ TÀI KHOẢN
@@ -61,6 +55,24 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Chủ tài khoản/ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Account name: </t>
+    </r>
+  </si>
+  <si>
+    <t>TRAN THANH HOA</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Ngày thực hiện/ </t>
     </r>
     <r>
@@ -84,11 +96,11 @@
     </r>
   </si>
   <si>
-    <t>${report_date}</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Chủ tài khoản/ </t>
+    <t>20/06/2025</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Số tài khoản/ </t>
     </r>
     <r>
       <rPr>
@@ -98,8 +110,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">Account name: </t>
-    </r>
+      <t xml:space="preserve">Account number: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+  </si>
+  <si>
+    <t>1047279571</t>
   </si>
   <si>
     <r>
@@ -126,28 +150,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Số tài khoản/ </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Account number: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
+    <t>DIGIBANK</t>
   </si>
   <si>
     <r>
@@ -174,6 +177,9 @@
     </r>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Số lượng đồng chủ sở hữu tài khoản (nếu có)/ </t>
     </r>
@@ -198,6 +204,9 @@
     </r>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Địa chỉ/ </t>
     </r>
@@ -213,9 +222,15 @@
     </r>
   </si>
   <si>
+    <t>PHU QUOI,LONG HO,VINH LONG HONG DUC</t>
+  </si>
+  <si>
     <t xml:space="preserve">CMND/CCCD/Hộ chiếu số
 ID/Citizen ID/PP No
 </t>
+  </si>
+  <si>
+    <t>086201007322</t>
   </si>
   <si>
     <t>CIF</t>
@@ -236,6 +251,9 @@
     </r>
   </si>
   <si>
+    <t>VND</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Từ/ </t>
     </r>
@@ -251,6 +269,9 @@
     </r>
   </si>
   <si>
+    <t>17/06/2025</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Đến/ </t>
     </r>
@@ -264,9 +285,6 @@
       </rPr>
       <t>To:</t>
     </r>
-  </si>
-  <si>
-    <t>${to_date}</t>
   </si>
   <si>
     <r>
@@ -285,6 +303,398 @@
     </r>
   </si>
   <si>
+    <t>850,000 VND</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">STT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>No.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ngày/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TNX Date</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">/ Số CT/ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Doc No</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Số tiền ghi nợ/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Debit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Số tiền ghi có/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Credit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Số dư/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Balance</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nội dung chi tiết/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Transactions in detail</t>
+    </r>
+  </si>
+  <si>
+    <t>17/06/2025
+5239 - 07178</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>200,000</t>
+  </si>
+  <si>
+    <t>1,050,000</t>
+  </si>
+  <si>
+    <t>MBVCB.9882337809.chuc bac mau khoe.CT tu 1039251552 TRAN NGOC KIM KHANH toi 1047279571 TRAN THANH HOA</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>17/06/2025
+5244 - 15054</t>
+  </si>
+  <si>
+    <t>100,000</t>
+  </si>
+  <si>
+    <t>1,150,000</t>
+  </si>
+  <si>
+    <t>MBVCB.9882666906.NGUYEN ANH THU chuyen tien. Mong co mau khoe.CT tu 1018320656 NGUYEN ANH THU toi 1047279571 TRAN THANH HOA</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>17/06/2025
+5387 - 95808</t>
+  </si>
+  <si>
+    <t>1,350,000</t>
+  </si>
+  <si>
+    <t>020097041506170905132025iuP1886929.95808.090513.TRAN THU TRUC Chuyen tien cau mong Me em chong qua con bao benh nhen</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>17/06/2025
+5241 - 20623</t>
+  </si>
+  <si>
+    <t>500,000</t>
+  </si>
+  <si>
+    <t>1,850,000</t>
+  </si>
+  <si>
+    <t>MBVCB.9882893260.ANH SI PKD GUI.CT tu 1039251216 NGUYEN HUNG SI toi 1047279571 TRAN THANH HOA</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>17/06/2025
+5389 - 29643</t>
+  </si>
+  <si>
+    <t>2,350,000</t>
+  </si>
+  <si>
+    <t>020097040506170914162025ZM9G040590.29643.091417.Vietcombank:1047279571:anh ngoc hongduc1 ho tro</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>17/06/2025
+5240 - 71430</t>
+  </si>
+  <si>
+    <t>2,450,000</t>
+  </si>
+  <si>
+    <t>MBVCB.9884742574.VO VAN HAU chuyen tien.CT tu 1039251827 VO VAN HAU toi 1047279571 TRAN THANH HOA</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>17/06/2025
+5212 - 69204</t>
+  </si>
+  <si>
+    <t>2,550,000</t>
+  </si>
+  <si>
+    <t>007400.170625.115107.IBFT Nhi can tin h6 gui quy ung ho</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>17/06/2025
+5239 - 87696</t>
+  </si>
+  <si>
+    <t>2,750,000</t>
+  </si>
+  <si>
+    <t>MBVCB.9885314525.PHUNG MINH SON chuyen tien.CT tu 0111000220233 PHUNG MINH SON toi 1047279571 TRAN THANH HOA</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>17/06/2025
+5209 - 46678</t>
+  </si>
+  <si>
+    <t>300,000</t>
+  </si>
+  <si>
+    <t>3,050,000</t>
+  </si>
+  <si>
+    <t>356703.170625.132858.Pham Xuan Hoa chuyen tien</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>17/06/2025
+5213 - 58524</t>
+  </si>
+  <si>
+    <t>3,250,000</t>
+  </si>
+  <si>
+    <t>214672.170625.133354.IBFT HUYNH THI DIEM TRANG chuyen tien- gd co len nha</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>17/06/2025
+5217 - 56497</t>
+  </si>
+  <si>
+    <t>3,350,000</t>
+  </si>
+  <si>
+    <t>990157.170625.141146.VO THI DIEU HIEN - KE TOAN H6 - HO TRO MONG ME CUNG MAU KHOE</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>17/06/2025
+5017 - 57985</t>
+  </si>
+  <si>
+    <t>3,450,000</t>
+  </si>
+  <si>
+    <t>143323.170625.141209.Ke toan H6 gui ung ho</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>17/06/2025
+5389 - 92010</t>
+  </si>
+  <si>
+    <t>3,650,000</t>
+  </si>
+  <si>
+    <t>020097041506171452572025uXK8923426.92010.145249.Mong me anh mau khoi benh va manh khoe</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>17/06/2025
+5220 - 16424</t>
+  </si>
+  <si>
+    <t>2,100,000</t>
+  </si>
+  <si>
+    <t>5,750,000</t>
+  </si>
+  <si>
+    <t>412383.170625.150647.IBFT HDMT gui em</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>17/06/2025
+5212 - 57443</t>
+  </si>
+  <si>
+    <t>6,800,000</t>
+  </si>
+  <si>
+    <t>314764.170625.151948.Hdlt gui Hoa</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17/06/2025
+5219 - 65844</t>
+  </si>
+  <si>
+    <t>6,900,000</t>
+  </si>
+  <si>
+    <t>444057.170625.152233.IBFT NGUYEN THI YEN NHI</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>17/06/2025
+5243 - 29784</t>
+  </si>
+  <si>
+    <t>7,100,000</t>
+  </si>
+  <si>
+    <t>MBVCB.9886795257.NGUYEN THI KIM XUYEN chuyen tien.CT tu 1016421826 NGUYEN THI KIM XUYEN toi 1047279571 TRAN THANH HOA</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>17/06/2025
+5240 - 41500</t>
+  </si>
+  <si>
+    <t>50,000</t>
+  </si>
+  <si>
+    <t>7,150,000</t>
+  </si>
+  <si>
+    <t>MBVCB.9887196366.THAI VINH HUY chuyen tien.CT tu 9388319165 THAI VINH HUY toi 1047279571 TRAN THANH HOA</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>17/06/2025
+5216 - 36434</t>
+  </si>
+  <si>
+    <t>2,900,000</t>
+  </si>
+  <si>
+    <t>10,050,000</t>
+  </si>
+  <si>
+    <t>638520.170625.164306.IBFT Tap the hong duc 2 chuyen tien</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>17/06/2025
+5220 - 04549</t>
+  </si>
+  <si>
+    <t>10,250,000</t>
+  </si>
+  <si>
+    <t>277349.170625.210311.IBFT HO THI THIEN KIM hong duc 3 gui it long</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Tổng số/ </t>
     </r>
@@ -301,6 +711,9 @@
     </r>
   </si>
   <si>
+    <t>9,400,000 VND</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Số dư cuối kỳ/ </t>
     </r>
@@ -317,6 +730,19 @@
     </r>
   </si>
   <si>
+    <t>10,250,000 VND</t>
+  </si>
+  <si>
+    <t>Trân trọng cảm ơn quý khách đã sử dụng dịch vụ Vietcombank!
+Thank you for using Vietcombank’s services!
+__________________</t>
+  </si>
+  <si>
+    <t>VIETCOMBANK – Chung niềm tin vững tương lai
+VIETCOMBANK – Together for the future
+*********</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -360,492 +786,12 @@
       <t xml:space="preserve"> This letter of confirmation of the Joint Stock Commercial Bank for Foreign Trade of Vietnam ensures accurate information at the time of confirmation as requested by the customer. This acknowledgment does not constitute any current or future guarantees of the customer's obligations confirmed to third parties./.</t>
     </r>
   </si>
-  <si>
-    <r>
-      <t xml:space="preserve">STT
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>No.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ngày/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>TNX Date</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">/ Số CT/ </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Doc No</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Số tiền ghi nợ/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Debit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Số tiền ghi có/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Credit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Số dư/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Balance</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nội dung chi tiết/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Transactions in detail</t>
-    </r>
-  </si>
-  <si>
-    <t>DIGIBANK</t>
-  </si>
-  <si>
-    <t>${from_date}</t>
-  </si>
-  <si>
-    <t>${trans.numberOrder}</t>
-  </si>
-  <si>
-    <t>${trans.refCustom}</t>
-  </si>
-  <si>
-    <t>${trans.minusAmount}</t>
-  </si>
-  <si>
-    <t>${trans.plusAmount}</t>
-  </si>
-  <si>
-    <t>${trans.balanceAmount}</t>
-  </si>
-  <si>
-    <t>${trans.description}</t>
-  </si>
-  <si>
-    <t>${account.accountName}</t>
-  </si>
-  <si>
-    <t>${account.accountNo}</t>
-  </si>
-  <si>
-    <t>${account.accountType}</t>
-  </si>
-  <si>
-    <t>${account.accountNum}</t>
-  </si>
-  <si>
-    <t>${account.accountAddress}</t>
-  </si>
-  <si>
-    <t>${account.accountIdNumber}</t>
-  </si>
-  <si>
-    <t>${account.accountCurrency}</t>
-  </si>
-  <si>
-    <t>${totalAmount} ${account.accountCurrency}</t>
-  </si>
-  <si>
-    <t>${endAmount} ${account.accountCurrency}</t>
-  </si>
-  <si>
-    <t>${startAmount} ${account.accountCurrency}</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>TRAN THANH HOA</t>
-  </si>
-  <si>
-    <t>1047279571</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>PHU QUOI,LONG HO,VINH LONG HONG DUC</t>
-  </si>
-  <si>
-    <t>086201007322</t>
-  </si>
-  <si>
-    <t>VND</t>
-  </si>
-  <si>
-    <t>17/06/2025</t>
-  </si>
-  <si>
-    <t>850,000 VND</t>
-  </si>
-  <si>
-    <t>20/06/2025</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>17/06/2025
-5239 - 07178</t>
-  </si>
-  <si>
-    <t>200,000</t>
-  </si>
-  <si>
-    <t>1,050,000</t>
-  </si>
-  <si>
-    <t>MBVCB.9882337809.chuc bac mau khoe.CT tu 1039251552 TRAN NGOC KIM KHANH toi 1047279571 TRAN THANH HOA</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>17/06/2025
-5244 - 15054</t>
-  </si>
-  <si>
-    <t>100,000</t>
-  </si>
-  <si>
-    <t>1,150,000</t>
-  </si>
-  <si>
-    <t>MBVCB.9882666906.NGUYEN ANH THU chuyen tien. Mong co mau khoe.CT tu 1018320656 NGUYEN ANH THU toi 1047279571 TRAN THANH HOA</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>17/06/2025
-5387 - 95808</t>
-  </si>
-  <si>
-    <t>1,350,000</t>
-  </si>
-  <si>
-    <t>020097041506170905132025iuP1886929.95808.090513.TRAN THU TRUC Chuyen tien cau mong Me em chong qua con bao benh nhen</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>17/06/2025
-5241 - 20623</t>
-  </si>
-  <si>
-    <t>500,000</t>
-  </si>
-  <si>
-    <t>1,850,000</t>
-  </si>
-  <si>
-    <t>MBVCB.9882893260.ANH SI PKD GUI.CT tu 1039251216 NGUYEN HUNG SI toi 1047279571 TRAN THANH HOA</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>17/06/2025
-5389 - 29643</t>
-  </si>
-  <si>
-    <t>2,350,000</t>
-  </si>
-  <si>
-    <t>020097040506170914162025ZM9G040590.29643.091417.Vietcombank:1047279571:anh ngoc hongduc1 ho tro</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>17/06/2025
-5240 - 71430</t>
-  </si>
-  <si>
-    <t>2,450,000</t>
-  </si>
-  <si>
-    <t>MBVCB.9884742574.VO VAN HAU chuyen tien.CT tu 1039251827 VO VAN HAU toi 1047279571 TRAN THANH HOA</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>17/06/2025
-5212 - 69204</t>
-  </si>
-  <si>
-    <t>2,550,000</t>
-  </si>
-  <si>
-    <t>007400.170625.115107.IBFT Nhi can tin h6 gui quy ung ho</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>17/06/2025
-5239 - 87696</t>
-  </si>
-  <si>
-    <t>2,750,000</t>
-  </si>
-  <si>
-    <t>MBVCB.9885314525.PHUNG MINH SON chuyen tien.CT tu 0111000220233 PHUNG MINH SON toi 1047279571 TRAN THANH HOA</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>17/06/2025
-5209 - 46678</t>
-  </si>
-  <si>
-    <t>300,000</t>
-  </si>
-  <si>
-    <t>3,050,000</t>
-  </si>
-  <si>
-    <t>356703.170625.132858.Pham Xuan Hoa chuyen tien</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>17/06/2025
-5213 - 58524</t>
-  </si>
-  <si>
-    <t>3,250,000</t>
-  </si>
-  <si>
-    <t>214672.170625.133354.IBFT HUYNH THI DIEM TRANG chuyen tien- gd co len nha</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>17/06/2025
-5217 - 56497</t>
-  </si>
-  <si>
-    <t>3,350,000</t>
-  </si>
-  <si>
-    <t>990157.170625.141146.VO THI DIEU HIEN - KE TOAN H6 - HO TRO MONG ME CUNG MAU KHOE</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>17/06/2025
-5017 - 57985</t>
-  </si>
-  <si>
-    <t>3,450,000</t>
-  </si>
-  <si>
-    <t>143323.170625.141209.Ke toan H6 gui ung ho</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>17/06/2025
-5389 - 92010</t>
-  </si>
-  <si>
-    <t>3,650,000</t>
-  </si>
-  <si>
-    <t>020097041506171452572025uXK8923426.92010.145249.Mong me anh mau khoi benh va manh khoe</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>17/06/2025
-5220 - 16424</t>
-  </si>
-  <si>
-    <t>2,100,000</t>
-  </si>
-  <si>
-    <t>5,750,000</t>
-  </si>
-  <si>
-    <t>412383.170625.150647.IBFT HDMT gui em</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>17/06/2025
-5212 - 57443</t>
-  </si>
-  <si>
-    <t>6,800,000</t>
-  </si>
-  <si>
-    <t>314764.170625.151948.Hdlt gui Hoa</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17/06/2025
-5219 - 65844</t>
-  </si>
-  <si>
-    <t>6,900,000</t>
-  </si>
-  <si>
-    <t>444057.170625.152233.IBFT NGUYEN THI YEN NHI</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>17/06/2025
-5243 - 29784</t>
-  </si>
-  <si>
-    <t>7,100,000</t>
-  </si>
-  <si>
-    <t>MBVCB.9886795257.NGUYEN THI KIM XUYEN chuyen tien.CT tu 1016421826 NGUYEN THI KIM XUYEN toi 1047279571 TRAN THANH HOA</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>17/06/2025
-5240 - 41500</t>
-  </si>
-  <si>
-    <t>50,000</t>
-  </si>
-  <si>
-    <t>7,150,000</t>
-  </si>
-  <si>
-    <t>MBVCB.9887196366.THAI VINH HUY chuyen tien.CT tu 9388319165 THAI VINH HUY toi 1047279571 TRAN THANH HOA</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>17/06/2025
-5216 - 36434</t>
-  </si>
-  <si>
-    <t>2,900,000</t>
-  </si>
-  <si>
-    <t>10,050,000</t>
-  </si>
-  <si>
-    <t>638520.170625.164306.IBFT Tap the hong duc 2 chuyen tien</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>17/06/2025
-5220 - 04549</t>
-  </si>
-  <si>
-    <t>10,250,000</t>
-  </si>
-  <si>
-    <t>277349.170625.210311.IBFT HO THI THIEN KIM hong duc 3 gui it long</t>
-  </si>
-  <si>
-    <t>9,400,000 VND</t>
-  </si>
-  <si>
-    <t>10,250,000 VND</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1080,19 +1026,6 @@
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1451,13 +1384,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1471,36 +1403,45 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1511,20 +1452,8 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1602,8 +1531,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>10002</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>467202</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1918,33 +1847,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="true" style="2" width="4.7109375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="6.28515625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="2" width="17.7109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="2" width="22.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="2" width="13.28515625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="2" width="15.0" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="2" width="23.85546875" collapsed="false"/>
-    <col min="8" max="16384" style="2" width="8.85546875" collapsed="false"/>
+    <col min="1" max="1" width="4.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="36.0" customHeight="true" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="45" customHeight="1">
       <c r="A1"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="E1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
       <c r="H1"/>
       <c r="I1"/>
       <c r="J1"/>
@@ -1965,10 +1896,9 @@
       <c r="Y1"/>
       <c r="Z1"/>
     </row>
-    <row r="2" spans="1:26" ht="13.9" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="3"/>
+    <row r="2" spans="1:26">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
@@ -1989,20 +1919,20 @@
       <c r="Y2"/>
       <c r="Z2"/>
     </row>
-    <row r="3" spans="1:26" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="19" t="s">
+    <row r="3" spans="1:26">
+      <c r="B3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2024,20 +1954,20 @@
       <c r="Y3"/>
       <c r="Z3"/>
     </row>
-    <row r="4" spans="1:26" ht="27.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="1:26">
+      <c r="B4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2059,20 +1989,20 @@
       <c r="Y4"/>
       <c r="Z4"/>
     </row>
-    <row r="5" spans="1:26" ht="42.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
+    <row r="5" spans="1:26">
+      <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="6" t="s">
-        <v>57</v>
+      <c r="E5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2094,17 +2024,17 @@
       <c r="Y5"/>
       <c r="Z5"/>
     </row>
-    <row r="6" spans="1:26" ht="13.9" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+    <row r="6" spans="1:26">
+      <c r="B6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
@@ -2125,17 +2055,17 @@
       <c r="Y6"/>
       <c r="Z6"/>
     </row>
-    <row r="7" spans="1:26" ht="27.75" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+    <row r="7" spans="1:26">
+      <c r="B7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
@@ -2156,15 +2086,15 @@
       <c r="Y7"/>
       <c r="Z7"/>
     </row>
-    <row r="8" spans="1:26" ht="13.9" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
+    <row r="8" spans="1:26">
+      <c r="B8" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
@@ -2185,17 +2115,17 @@
       <c r="Y8"/>
       <c r="Z8"/>
     </row>
-    <row r="9" spans="1:26" ht="18.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
+    <row r="9" spans="1:26">
+      <c r="B9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
@@ -2216,21 +2146,21 @@
       <c r="Y9"/>
       <c r="Z9"/>
     </row>
-    <row r="10" spans="1:26" ht="19.5" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="19"/>
+    <row r="10" spans="1:26">
+      <c r="B10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="18"/>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
@@ -2251,17 +2181,17 @@
       <c r="Y10"/>
       <c r="Z10"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B11" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
+    <row r="11" spans="1:26">
+      <c r="B11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -2282,13 +2212,7 @@
       <c r="Y11"/>
       <c r="Z11"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+    <row r="12" spans="1:26">
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -2309,24 +2233,24 @@
       <c r="Y12"/>
       <c r="Z12"/>
     </row>
-    <row r="13" spans="1:26" ht="54.75" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="10" t="s">
+    <row r="13" spans="1:26" ht="42">
+      <c r="B13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>28</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="H13"/>
       <c r="I13"/>
@@ -2348,25 +2272,25 @@
       <c r="Y13"/>
       <c r="Z13"/>
     </row>
-    <row r="14" spans="1:26" ht="60.0" x14ac:dyDescent="0.25" customHeight="true">
+    <row r="14" spans="1:26" ht="88.5">
       <c r="A14"/>
-      <c r="B14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>61</v>
+      <c r="B14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
@@ -2388,24 +2312,24 @@
       <c r="Y14"/>
       <c r="Z14"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25" ht="60.0" customHeight="true">
-      <c r="B15" t="s" s="13">
-        <v>62</v>
-      </c>
-      <c r="C15" t="s" s="14">
-        <v>63</v>
-      </c>
-      <c r="D15" t="s" s="16">
-        <v>47</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" t="s" s="16">
-        <v>65</v>
-      </c>
-      <c r="G15" t="s" s="15">
-        <v>66</v>
+    <row r="15" spans="1:26" ht="102">
+      <c r="B15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="H15"/>
       <c r="I15"/>
@@ -2427,24 +2351,24 @@
       <c r="Y15"/>
       <c r="Z15"/>
     </row>
-    <row r="16" spans="1:26" ht="60.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>70</v>
+    <row r="16" spans="1:26" ht="88.5">
+      <c r="B16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
@@ -2466,24 +2390,24 @@
       <c r="Y16"/>
       <c r="Z16"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25" ht="60.0" customHeight="true">
-      <c r="B17" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="16" t="s">
+    <row r="17" spans="2:26" ht="73.5">
+      <c r="B17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>75</v>
+      <c r="F17" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
@@ -2505,24 +2429,24 @@
       <c r="Y17"/>
       <c r="Z17"/>
     </row>
-    <row r="18" spans="2:26" ht="60.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="16" t="s">
+    <row r="18" spans="2:26" ht="73.5">
+      <c r="B18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>79</v>
+      <c r="F18" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
@@ -2544,24 +2468,24 @@
       <c r="Y18"/>
       <c r="Z18"/>
     </row>
-    <row r="19" spans="2:26" ht="60.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>83</v>
+    <row r="19" spans="2:26" ht="88.5">
+      <c r="B19" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
@@ -2583,24 +2507,24 @@
       <c r="Y19"/>
       <c r="Z19"/>
     </row>
-    <row r="20" spans="2:26" ht="60.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B20" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>87</v>
+    <row r="20" spans="2:26" ht="44.25">
+      <c r="B20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
@@ -2622,24 +2546,24 @@
       <c r="Y20"/>
       <c r="Z20"/>
     </row>
-    <row r="21" spans="2:26" ht="60.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>91</v>
+    <row r="21" spans="2:26" ht="88.5">
+      <c r="B21" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="H21"/>
       <c r="I21"/>
@@ -2661,24 +2585,24 @@
       <c r="Y21"/>
       <c r="Z21"/>
     </row>
-    <row r="22" spans="2:26" ht="60.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>96</v>
+    <row r="22" spans="2:26" ht="44.25">
+      <c r="B22" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="H22"/>
       <c r="I22"/>
@@ -2700,24 +2624,24 @@
       <c r="Y22"/>
       <c r="Z22"/>
     </row>
-    <row r="23" spans="2:26" ht="60.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>100</v>
+    <row r="23" spans="2:26" ht="58.5">
+      <c r="B23" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="H23"/>
       <c r="I23"/>
@@ -2739,24 +2663,24 @@
       <c r="Y23"/>
       <c r="Z23"/>
     </row>
-    <row r="24" spans="2:26" ht="60.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>104</v>
+    <row r="24" spans="2:26" ht="73.5">
+      <c r="B24" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
@@ -2778,24 +2702,24 @@
       <c r="Y24"/>
       <c r="Z24"/>
     </row>
-    <row r="25" spans="2:26" s="5" customFormat="1" ht="60.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B25" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>108</v>
+    <row r="25" spans="2:26" s="4" customFormat="1" ht="29.25">
+      <c r="B25" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="H25"/>
       <c r="I25"/>
@@ -2817,24 +2741,24 @@
       <c r="Y25"/>
       <c r="Z25"/>
     </row>
-    <row r="26" spans="2:26" s="5" customFormat="1" x14ac:dyDescent="0.25" ht="60.0" customHeight="true">
-      <c r="B26" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>112</v>
+    <row r="26" spans="2:26" s="4" customFormat="1" ht="58.5">
+      <c r="B26" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="H26"/>
       <c r="I26"/>
@@ -2856,24 +2780,24 @@
       <c r="Y26"/>
       <c r="Z26"/>
     </row>
-    <row r="27" spans="2:26" ht="60.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>117</v>
+    <row r="27" spans="2:26" ht="29.25">
+      <c r="B27" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="H27"/>
       <c r="I27"/>
@@ -2895,24 +2819,24 @@
       <c r="Y27"/>
       <c r="Z27"/>
     </row>
-    <row r="28" spans="2:26" ht="60.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="B28" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>121</v>
+    <row r="28" spans="2:26" ht="29.25">
+      <c r="B28" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="H28"/>
       <c r="I28"/>
@@ -2934,24 +2858,24 @@
       <c r="Y28"/>
       <c r="Z28"/>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25" ht="60.0" customHeight="true">
-      <c r="B29" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>125</v>
+    <row r="29" spans="2:26" ht="44.25">
+      <c r="B29" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
@@ -2973,24 +2897,24 @@
       <c r="Y29"/>
       <c r="Z29"/>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25" ht="60.0" customHeight="true">
-      <c r="B30" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>129</v>
+    <row r="30" spans="2:26" ht="102">
+      <c r="B30" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="H30"/>
       <c r="I30"/>
@@ -3012,24 +2936,24 @@
       <c r="Y30"/>
       <c r="Z30"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25" ht="60.0" customHeight="true">
-      <c r="B31" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>134</v>
+    <row r="31" spans="2:26" ht="88.5">
+      <c r="B31" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>
@@ -3051,24 +2975,24 @@
       <c r="Y31"/>
       <c r="Z31"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25" ht="60.0" customHeight="true">
-      <c r="B32" t="s" s="13">
-        <v>135</v>
-      </c>
-      <c r="C32" t="s" s="14">
-        <v>136</v>
-      </c>
-      <c r="D32" t="s" s="16">
-        <v>47</v>
-      </c>
-      <c r="E32" t="s" s="17">
-        <v>137</v>
-      </c>
-      <c r="F32" t="s" s="16">
-        <v>138</v>
-      </c>
-      <c r="G32" t="s" s="15">
-        <v>139</v>
+    <row r="32" spans="2:26" ht="44.25">
+      <c r="B32" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
@@ -3090,208 +3014,199 @@
       <c r="Y32"/>
       <c r="Z32"/>
     </row>
-    <row r="33" ht="60.0" customHeight="true">
-      <c r="B33" t="s" s="13">
-        <v>140</v>
-      </c>
-      <c r="C33" t="s" s="14">
-        <v>141</v>
-      </c>
-      <c r="D33" t="s" s="16">
-        <v>47</v>
-      </c>
-      <c r="E33" t="s" s="17">
-        <v>59</v>
-      </c>
-      <c r="F33" t="s" s="16">
-        <v>142</v>
-      </c>
-      <c r="G33" t="s" s="15">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" ht="15.0" customHeight="true">
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" ht="19.5" customHeight="true">
-      <c r="B35" t="s" s="23">
-        <v>19</v>
-      </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="8"/>
-      <c r="E35" t="s" s="24">
-        <v>144</v>
-      </c>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-    </row>
-    <row r="36" ht="15.0" customHeight="true">
-      <c r="B36" t="s" s="23">
-        <v>20</v>
-      </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" t="s" s="24">
-        <v>145</v>
-      </c>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-    </row>
-    <row r="37" ht="10.5" customHeight="true">
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-    </row>
-    <row r="38" ht="16.9" customHeight="true">
-      <c r="B38" t="s" s="20">
-        <v>1</v>
-      </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-    </row>
-    <row r="39" ht="13.9" customHeight="true">
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-    </row>
-    <row r="40" ht="21.0" customHeight="true">
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-    </row>
-    <row r="41" ht="13.9" customHeight="true">
-      <c r="B41" t="s" s="22">
-        <v>2</v>
-      </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-    </row>
-    <row r="42" ht="18.0" customHeight="true">
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-    </row>
-    <row r="43" ht="12.0" customHeight="true">
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-    </row>
-    <row r="44" ht="13.15" customHeight="true">
-      <c r="B44" t="s" s="18">
-        <v>21</v>
-      </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-    </row>
-    <row r="45" ht="15.0" customHeight="true">
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-    </row>
-    <row r="46" ht="26.25" customHeight="true">
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-    </row>
-    <row r="47" ht="8.25" customHeight="true">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" ht="15.0" customHeight="true">
-      <c r="B48" t="s" s="19">
-        <v>22</v>
-      </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-    </row>
-    <row r="49" ht="15.0" customHeight="true">
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-    </row>
-    <row r="50" ht="15.0" customHeight="true">
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
+    <row r="33" spans="2:7" ht="44.25">
+      <c r="B33" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="B48:G50"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B38:G40"/>
+    <mergeCell ref="B41:G43"/>
+    <mergeCell ref="B44:G46"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B38:G40"/>
-    <mergeCell ref="B41:G43"/>
-    <mergeCell ref="B44:G46"/>
-    <mergeCell ref="B48:G50"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>